--- a/src/api/data/工作机会.xlsx
+++ b/src/api/data/工作机会.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>title</t>
   </si>
@@ -80,21 +80,6 @@
 2.多项目、多任务管理能力，能带队创作并跨团队合作；
 3.良好的客户沟通与关系维护能力；
 4.关注互联网，软件与各类电子产品，对数字媒体领域交互设计师和设计研究方面的理论及实践拥有深刻见解。</t>
-  </si>
-  <si>
-    <t>emailKey</t>
-  </si>
-  <si>
-    <t>emailVal</t>
-  </si>
-  <si>
-    <t>管辖范围</t>
-  </si>
-  <si>
-    <t>邮箱地址</t>
-  </si>
-  <si>
-    <t>fanny@hungshang.com.hk</t>
   </si>
 </sst>
 </file>
@@ -207,26 +192,20 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="14"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -313,7 +292,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -329,40 +308,67 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1485,7 +1491,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1496,10 +1502,10 @@
     <col min="3" max="3" width="13.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6719" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5781" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5781" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5781" style="1" customWidth="1"/>
-    <col min="9" max="9" width="182.055" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6719" style="1" customWidth="1"/>
+    <col min="9" max="9" width="182" style="1" customWidth="1"/>
     <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1560,6 +1566,94 @@
       <c r="I2" t="s" s="4">
         <v>17</v>
       </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1578,19 +1672,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.3516" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.8516" style="5" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.8516" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.8516" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.3516" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.6719" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.3516" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.6719" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.6719" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.6719" style="15" customWidth="1"/>
+    <col min="9" max="9" width="182" style="15" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.55" customHeight="1">
@@ -1607,95 +1704,119 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="31.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="31.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="140" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1711,19 +1832,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29" style="17" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.3516" style="17" customWidth="1"/>
-    <col min="6" max="6" width="30.8516" style="17" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="1" width="21.8516" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.8516" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.3516" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.6719" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.3516" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.6719" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.6719" style="26" customWidth="1"/>
+    <col min="8" max="8" width="12.6719" style="26" customWidth="1"/>
+    <col min="9" max="9" width="182" style="26" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.55" customHeight="1">
@@ -1740,97 +1864,142 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="31.55" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="140" customHeight="1">
       <c r="A2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>15</v>
-      </c>
       <c r="C2" t="s" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="3">
         <v>12</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="31.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/src/api/data/工作机会.xlsx
+++ b/src/api/data/工作机会.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\媛媛填写\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="15990"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId4"/>
-    <sheet name="繁体" sheetId="2" r:id="rId5"/>
-    <sheet name="英文" sheetId="3" r:id="rId6"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="繁体" sheetId="2" r:id="rId2"/>
+    <sheet name="英文" sheetId="3" r:id="rId3"/>
+    <sheet name="用于此页面" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>title</t>
   </si>
@@ -43,9 +51,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>Sales Engineer</t>
-  </si>
-  <si>
     <t>香港鸿昇电子器材有限公司</t>
   </si>
   <si>
@@ -58,15 +63,12 @@
     <t>发布日期</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Fanny Ng 女士</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="13"/>
         <rFont val="Helvetica"/>
@@ -75,33 +77,1172 @@
     </r>
   </si>
   <si>
-    <t>结合客户需求与市场趋势，为产品初期规划提供深刻见解与发展方向；计划并执行用户研究，总结研究数据并提供报告;定义产品交互模型并执行关键用户流程交互设计；呈现设计方案并与客户沟通设计思路;与内部团队及客户方团队协作，提高产品设计质量;指导初级设计师工作。
-1.五年以上用户体验设计相关工作经验；
-2.多项目、多任务管理能力，能带队创作并跨团队合作；
-3.良好的客户沟通与关系维护能力；
-4.关注互联网，软件与各类电子产品，对数字媒体领域交互设计师和设计研究方面的理论及实践拥有深刻见解。</t>
+    <t>香港鴻昇電子器材有限公司</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lady Fanny.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结合客户需求与市场趋势，为产品初期规划提供深刻见解与发展方向；计划并执行用户研究，总结研究数据并提供报告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义产品交互模型并执行关键用户流程交互设计；呈现设计方案并与客户沟通设计思路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与内部团队及客户方团队协作，提高产品设计质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">指导初级设计师工作。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">五年以上用户体验设计相关工作经验；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">多项目、多任务管理能力，能带队创作并跨团队合作；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">良好的客户沟通与关系维护能力；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关注互联网，软件与各类电子产品，对数字媒体领域交互设计师和设计研究方面的理论及实践拥有深刻见解。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Combining customer needs and market trends, providing insight and development direction for initial product planning; planning and implementing user research, summarizing research data and providing reports; defining product interaction models and performing interactive design of key user processes; presenting design solutions and communicating with customers; and internal teams and customers. Team work together to improve product design quality and guide junior designers.
+1. more than five years experience in user experience design.
+2. multi project, multi task management ability, can lead the team to create and cross team cooperation;
+3. good customer communication and relationship maintenance ability;
+4. focus on the Internet, software and various electronic products, and have deep insights into the theory and practice of interaction designers and design research in the digital media field. "</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市麦信实业有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Engineer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jocelyn@mansion-technology.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>March 2018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计文员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位要求：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、专科及以上学历，在良好的英语基础；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> 
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年以上销售工作经验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有相关建材或锁业工作经历者优先；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> 
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、熟悉电子元器件行业产品市场，有相应产品销售经验或对电子元器件产品有兴趣；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> 
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、具备较强的客户沟通能力和较高的商务处理能力，具有良好的团队协作精神；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> 
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、学习能力强，有挑战精神。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位要求：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、财会或经济等相关专业，中专及以上学历；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、具备良好的会计基础知识，有工商、税务工作优先；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、熟悉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>SAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">软件操作优先；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、良好的职业操守及团队合作精神，较强的沟通、理解和分析能力；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、具有独立工作和学习的能力，工作认真细心；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、有合格的会计从业资格证，广东户口优先考虑。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jocelyn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女士</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>May 2018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>December 2017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售工程師</t>
+  </si>
+  <si>
+    <t>销售工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售工程师（电子）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售工程師(電子)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市麥信實業有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地點</t>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jocelyn@mansion-technology.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合客戶需求與市場趨勢，為產品初期規劃提供深刻見解與發展方向；計畫並執行用戶研究，總結研究數據並提供報告；定義產品互動模型並執行關鍵用戶流程交互設計；呈現設計方案並與客戶溝通設計思路；與內部團隊及客戶方團隊合作，提高產品設計質量；指導初級設計師工作。
+1.五年以上用戶體驗設計相關工作經驗；
+2.多項目、多工管理能力，能帶隊創作並跨團隊合作；
+3.良好的客戶溝通與關係維護能力；
+4.關注互聯網，軟件與各類電子產品，對數字媒體領域互動設計師和設計研究方面的理論及實踐擁有深刻見解。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">崗位要求：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、專科及以上學歷，在良好的英語基礎；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">年以上銷售工作經驗，有相關建材或鎖業工作經歷者優先；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、熟悉電子元器件行業產品市場，有相應產品銷售經驗或對電子元器件產品有興趣；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、具備較强的客戶溝通能力和較高的商務處理能力，具有良好的團隊合作精神；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、學習能力强，有挑戰精神。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Post requirements:
+1. College degree or above, good English foundation;
+2. More than 1 years of sales experience, with relevant building materials or lock industry experience is preferred.
+3. Be familiar with the product market of electronic component industry, have corresponding product sales experience, or be interested in electronic components and components.
+4. Strong customer communication skills and high business dealing ability. Good teamwork spirit.
+5. Strong learning ability and challenging spirit. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongkong Hungshang Electronic Equipment Co., Ltd.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Engineer (Electronics)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen Mansion Industrial Co., Ltd.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lady jocelyn.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售工程师（纸业）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Engineer (Paper)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岗位要求：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、中专或以上学历，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、有相关一年或以上工作经验，对不干胶行业有一定的了解；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、性格开朗，有良好的沟通能力及抗压能力；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、能吃苦耐劳，优秀的应往聘毕业也可。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、上班地点：深圳宝安区前进二路</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">崗位要求：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、高職或以上學歷，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、有相關一年或以上工作經驗，對不乾膠行業有一定的瞭解；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、性格開朗，有良好的溝通能力及抗壓能力；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、能吃苦耐勞，優秀的應往聘畢業也可。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、上班地點：深圳寶安區前進二路</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售工程師(纸业)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post requirements:
+1. Secondary school or above,
+2. Over one year or above working experience, have a certain understanding of the adhesive industry.
+3, cheerful personality, good communication skills and compression ability;
+4, can bear hardships and stand hard work, excellent graduates should also be employed.
+5, working place: the two way forward in Baoan District, Shenzhen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts clerk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計文員</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateVal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>發佈日期</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年三月</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年五月</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release date</t>
+  </si>
+  <si>
+    <t>dateKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>May 2016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>崗位要求：
+1、財會或經濟等相關專業，高職及以上學歷；
+2、具備良好的會計基礎知識，有工商、稅務工作優先；
+3、熟悉SAP軟件操作優先；
+4、良好的職業操守及團隊合作精神，較强的溝通、理解和分析能力；
+5、具有獨立工作和學習的能力，工作認真細心；
+6、有合格的會計從業資格證，廣東戶口優先考慮。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post requirements:
+1. Accounting or economics related majors, secondary technical school or above.
+2. Good basic knowledge of accounting, preferably in industry and commerce, taxation.
+3. Familiarity with SAP software is a priority.
+4. Good professional ethics and team spirit, strong communication, understanding and analytical skills;
+5. Independent working and learning ability.
+6. Qualified accountant qualification certificate. Guangdong account is preferred.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Working place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -111,10 +1252,59 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="14"/>
       <color indexed="13"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -137,7 +1327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -162,16 +1352,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -185,225 +1375,213 @@
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="7304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -529,7 +1707,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -538,7 +1716,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -547,7 +1725,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -621,7 +1799,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -629,7 +1807,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -648,7 +1826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +1856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +1882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +1908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +1934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +1960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +1986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +2012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +2038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +2064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,9 +2077,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -916,7 +2100,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -924,7 +2108,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -943,7 +2127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +2153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +2179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +2205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +2231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +2257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +2283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +2309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +2335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +2361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,9 +2374,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1206,7 +2396,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1225,7 +2415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +2445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +2471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +2497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +2523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +2549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +2575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +2601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,7 +2627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,7 +2653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1476,191 +2666,997 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="182" style="1" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="140" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s" s="4">
-        <v>17</v>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+    <row r="3" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="4"/>
+      <c r="DF3" s="4"/>
+      <c r="DG3" s="4"/>
+      <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
+      <c r="DP3" s="4"/>
+      <c r="DQ3" s="4"/>
+      <c r="DR3" s="4"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
+      <c r="EB3" s="4"/>
+      <c r="EC3" s="4"/>
+      <c r="ED3" s="4"/>
+      <c r="EE3" s="4"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
+      <c r="EI3" s="4"/>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4"/>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
+      <c r="EO3" s="4"/>
+      <c r="EP3" s="4"/>
+      <c r="EQ3" s="4"/>
+      <c r="ER3" s="4"/>
+      <c r="ES3" s="4"/>
+      <c r="ET3" s="4"/>
+      <c r="EU3" s="4"/>
+      <c r="EV3" s="4"/>
+      <c r="EW3" s="4"/>
+      <c r="EX3" s="4"/>
+      <c r="EY3" s="4"/>
+      <c r="EZ3" s="4"/>
+      <c r="FA3" s="4"/>
+      <c r="FB3" s="4"/>
+      <c r="FC3" s="4"/>
+      <c r="FD3" s="4"/>
+      <c r="FE3" s="4"/>
+      <c r="FF3" s="4"/>
+      <c r="FG3" s="4"/>
+      <c r="FH3" s="4"/>
+      <c r="FI3" s="4"/>
+      <c r="FJ3" s="4"/>
+      <c r="FK3" s="4"/>
+      <c r="FL3" s="4"/>
+      <c r="FM3" s="4"/>
+      <c r="FN3" s="4"/>
+      <c r="FO3" s="4"/>
+      <c r="FP3" s="4"/>
+      <c r="FQ3" s="4"/>
+      <c r="FR3" s="4"/>
+      <c r="FS3" s="4"/>
+      <c r="FT3" s="4"/>
+      <c r="FU3" s="4"/>
+      <c r="FV3" s="4"/>
+      <c r="FW3" s="4"/>
+      <c r="FX3" s="4"/>
+      <c r="FY3" s="4"/>
+      <c r="FZ3" s="4"/>
+      <c r="GA3" s="4"/>
+      <c r="GB3" s="4"/>
+      <c r="GC3" s="4"/>
+      <c r="GD3" s="4"/>
+      <c r="GE3" s="4"/>
+      <c r="GF3" s="4"/>
+      <c r="GG3" s="4"/>
+      <c r="GH3" s="4"/>
+      <c r="GI3" s="4"/>
+      <c r="GJ3" s="4"/>
+      <c r="GK3" s="4"/>
+      <c r="GL3" s="4"/>
+      <c r="GM3" s="4"/>
+      <c r="GN3" s="4"/>
+      <c r="GO3" s="4"/>
+      <c r="GP3" s="4"/>
+      <c r="GQ3" s="4"/>
+      <c r="GR3" s="4"/>
+      <c r="GS3" s="4"/>
+      <c r="GT3" s="4"/>
+      <c r="GU3" s="4"/>
+      <c r="GV3" s="4"/>
+      <c r="GW3" s="4"/>
+      <c r="GX3" s="4"/>
+      <c r="GY3" s="4"/>
+      <c r="GZ3" s="4"/>
+      <c r="HA3" s="4"/>
+      <c r="HB3" s="4"/>
+      <c r="HC3" s="4"/>
+      <c r="HD3" s="4"/>
+      <c r="HE3" s="4"/>
+      <c r="HF3" s="4"/>
+      <c r="HG3" s="4"/>
+      <c r="HH3" s="4"/>
+      <c r="HI3" s="4"/>
+      <c r="HJ3" s="4"/>
+      <c r="HK3" s="4"/>
+      <c r="HL3" s="4"/>
+      <c r="HM3" s="4"/>
+      <c r="HN3" s="4"/>
+      <c r="HO3" s="4"/>
+      <c r="HP3" s="4"/>
+      <c r="HQ3" s="4"/>
+      <c r="HR3" s="4"/>
+      <c r="HS3" s="4"/>
+      <c r="HT3" s="4"/>
+      <c r="HU3" s="4"/>
+      <c r="HV3" s="4"/>
+      <c r="HW3" s="4"/>
+      <c r="HX3" s="4"/>
+      <c r="HY3" s="4"/>
+      <c r="HZ3" s="4"/>
+      <c r="IA3" s="4"/>
+      <c r="IB3" s="4"/>
+      <c r="IC3" s="4"/>
+      <c r="ID3" s="4"/>
+      <c r="IE3" s="4"/>
+      <c r="IF3" s="4"/>
+      <c r="IG3" s="4"/>
+      <c r="IH3" s="4"/>
+      <c r="II3" s="4"/>
+      <c r="IJ3" s="4"/>
+      <c r="IK3" s="4"/>
+      <c r="IL3" s="4"/>
+      <c r="IM3" s="4"/>
+      <c r="IN3" s="4"/>
+      <c r="IO3" s="4"/>
+      <c r="IP3" s="4"/>
+      <c r="IQ3" s="4"/>
+      <c r="IR3" s="4"/>
+      <c r="IS3" s="4"/>
+      <c r="IT3" s="4"/>
+      <c r="IU3" s="4"/>
+      <c r="IV3" s="4"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+    <row r="4" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
+      <c r="DC4" s="4"/>
+      <c r="DD4" s="4"/>
+      <c r="DE4" s="4"/>
+      <c r="DF4" s="4"/>
+      <c r="DG4" s="4"/>
+      <c r="DH4" s="4"/>
+      <c r="DI4" s="4"/>
+      <c r="DJ4" s="4"/>
+      <c r="DK4" s="4"/>
+      <c r="DL4" s="4"/>
+      <c r="DM4" s="4"/>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="4"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4"/>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4"/>
+      <c r="DV4" s="4"/>
+      <c r="DW4" s="4"/>
+      <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
+      <c r="DZ4" s="4"/>
+      <c r="EA4" s="4"/>
+      <c r="EB4" s="4"/>
+      <c r="EC4" s="4"/>
+      <c r="ED4" s="4"/>
+      <c r="EE4" s="4"/>
+      <c r="EF4" s="4"/>
+      <c r="EG4" s="4"/>
+      <c r="EH4" s="4"/>
+      <c r="EI4" s="4"/>
+      <c r="EJ4" s="4"/>
+      <c r="EK4" s="4"/>
+      <c r="EL4" s="4"/>
+      <c r="EM4" s="4"/>
+      <c r="EN4" s="4"/>
+      <c r="EO4" s="4"/>
+      <c r="EP4" s="4"/>
+      <c r="EQ4" s="4"/>
+      <c r="ER4" s="4"/>
+      <c r="ES4" s="4"/>
+      <c r="ET4" s="4"/>
+      <c r="EU4" s="4"/>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4"/>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="4"/>
+      <c r="EZ4" s="4"/>
+      <c r="FA4" s="4"/>
+      <c r="FB4" s="4"/>
+      <c r="FC4" s="4"/>
+      <c r="FD4" s="4"/>
+      <c r="FE4" s="4"/>
+      <c r="FF4" s="4"/>
+      <c r="FG4" s="4"/>
+      <c r="FH4" s="4"/>
+      <c r="FI4" s="4"/>
+      <c r="FJ4" s="4"/>
+      <c r="FK4" s="4"/>
+      <c r="FL4" s="4"/>
+      <c r="FM4" s="4"/>
+      <c r="FN4" s="4"/>
+      <c r="FO4" s="4"/>
+      <c r="FP4" s="4"/>
+      <c r="FQ4" s="4"/>
+      <c r="FR4" s="4"/>
+      <c r="FS4" s="4"/>
+      <c r="FT4" s="4"/>
+      <c r="FU4" s="4"/>
+      <c r="FV4" s="4"/>
+      <c r="FW4" s="4"/>
+      <c r="FX4" s="4"/>
+      <c r="FY4" s="4"/>
+      <c r="FZ4" s="4"/>
+      <c r="GA4" s="4"/>
+      <c r="GB4" s="4"/>
+      <c r="GC4" s="4"/>
+      <c r="GD4" s="4"/>
+      <c r="GE4" s="4"/>
+      <c r="GF4" s="4"/>
+      <c r="GG4" s="4"/>
+      <c r="GH4" s="4"/>
+      <c r="GI4" s="4"/>
+      <c r="GJ4" s="4"/>
+      <c r="GK4" s="4"/>
+      <c r="GL4" s="4"/>
+      <c r="GM4" s="4"/>
+      <c r="GN4" s="4"/>
+      <c r="GO4" s="4"/>
+      <c r="GP4" s="4"/>
+      <c r="GQ4" s="4"/>
+      <c r="GR4" s="4"/>
+      <c r="GS4" s="4"/>
+      <c r="GT4" s="4"/>
+      <c r="GU4" s="4"/>
+      <c r="GV4" s="4"/>
+      <c r="GW4" s="4"/>
+      <c r="GX4" s="4"/>
+      <c r="GY4" s="4"/>
+      <c r="GZ4" s="4"/>
+      <c r="HA4" s="4"/>
+      <c r="HB4" s="4"/>
+      <c r="HC4" s="4"/>
+      <c r="HD4" s="4"/>
+      <c r="HE4" s="4"/>
+      <c r="HF4" s="4"/>
+      <c r="HG4" s="4"/>
+      <c r="HH4" s="4"/>
+      <c r="HI4" s="4"/>
+      <c r="HJ4" s="4"/>
+      <c r="HK4" s="4"/>
+      <c r="HL4" s="4"/>
+      <c r="HM4" s="4"/>
+      <c r="HN4" s="4"/>
+      <c r="HO4" s="4"/>
+      <c r="HP4" s="4"/>
+      <c r="HQ4" s="4"/>
+      <c r="HR4" s="4"/>
+      <c r="HS4" s="4"/>
+      <c r="HT4" s="4"/>
+      <c r="HU4" s="4"/>
+      <c r="HV4" s="4"/>
+      <c r="HW4" s="4"/>
+      <c r="HX4" s="4"/>
+      <c r="HY4" s="4"/>
+      <c r="HZ4" s="4"/>
+      <c r="IA4" s="4"/>
+      <c r="IB4" s="4"/>
+      <c r="IC4" s="4"/>
+      <c r="ID4" s="4"/>
+      <c r="IE4" s="4"/>
+      <c r="IF4" s="4"/>
+      <c r="IG4" s="4"/>
+      <c r="IH4" s="4"/>
+      <c r="II4" s="4"/>
+      <c r="IJ4" s="4"/>
+      <c r="IK4" s="4"/>
+      <c r="IL4" s="4"/>
+      <c r="IM4" s="4"/>
+      <c r="IN4" s="4"/>
+      <c r="IO4" s="4"/>
+      <c r="IP4" s="4"/>
+      <c r="IQ4" s="4"/>
+      <c r="IR4" s="4"/>
+      <c r="IS4" s="4"/>
+      <c r="IT4" s="4"/>
+      <c r="IU4" s="4"/>
+      <c r="IV4" s="4"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+    <row r="5" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
+      <c r="CQ5" s="4"/>
+      <c r="CR5" s="4"/>
+      <c r="CS5" s="4"/>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="4"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
+      <c r="CX5" s="4"/>
+      <c r="CY5" s="4"/>
+      <c r="CZ5" s="4"/>
+      <c r="DA5" s="4"/>
+      <c r="DB5" s="4"/>
+      <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
+      <c r="DG5" s="4"/>
+      <c r="DH5" s="4"/>
+      <c r="DI5" s="4"/>
+      <c r="DJ5" s="4"/>
+      <c r="DK5" s="4"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="4"/>
+      <c r="DQ5" s="4"/>
+      <c r="DR5" s="4"/>
+      <c r="DS5" s="4"/>
+      <c r="DT5" s="4"/>
+      <c r="DU5" s="4"/>
+      <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="4"/>
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="4"/>
+      <c r="EB5" s="4"/>
+      <c r="EC5" s="4"/>
+      <c r="ED5" s="4"/>
+      <c r="EE5" s="4"/>
+      <c r="EF5" s="4"/>
+      <c r="EG5" s="4"/>
+      <c r="EH5" s="4"/>
+      <c r="EI5" s="4"/>
+      <c r="EJ5" s="4"/>
+      <c r="EK5" s="4"/>
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4"/>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4"/>
+      <c r="EW5" s="4"/>
+      <c r="EX5" s="4"/>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+      <c r="FK5" s="4"/>
+      <c r="FL5" s="4"/>
+      <c r="FM5" s="4"/>
+      <c r="FN5" s="4"/>
+      <c r="FO5" s="4"/>
+      <c r="FP5" s="4"/>
+      <c r="FQ5" s="4"/>
+      <c r="FR5" s="4"/>
+      <c r="FS5" s="4"/>
+      <c r="FT5" s="4"/>
+      <c r="FU5" s="4"/>
+      <c r="FV5" s="4"/>
+      <c r="FW5" s="4"/>
+      <c r="FX5" s="4"/>
+      <c r="FY5" s="4"/>
+      <c r="FZ5" s="4"/>
+      <c r="GA5" s="4"/>
+      <c r="GB5" s="4"/>
+      <c r="GC5" s="4"/>
+      <c r="GD5" s="4"/>
+      <c r="GE5" s="4"/>
+      <c r="GF5" s="4"/>
+      <c r="GG5" s="4"/>
+      <c r="GH5" s="4"/>
+      <c r="GI5" s="4"/>
+      <c r="GJ5" s="4"/>
+      <c r="GK5" s="4"/>
+      <c r="GL5" s="4"/>
+      <c r="GM5" s="4"/>
+      <c r="GN5" s="4"/>
+      <c r="GO5" s="4"/>
+      <c r="GP5" s="4"/>
+      <c r="GQ5" s="4"/>
+      <c r="GR5" s="4"/>
+      <c r="GS5" s="4"/>
+      <c r="GT5" s="4"/>
+      <c r="GU5" s="4"/>
+      <c r="GV5" s="4"/>
+      <c r="GW5" s="4"/>
+      <c r="GX5" s="4"/>
+      <c r="GY5" s="4"/>
+      <c r="GZ5" s="4"/>
+      <c r="HA5" s="4"/>
+      <c r="HB5" s="4"/>
+      <c r="HC5" s="4"/>
+      <c r="HD5" s="4"/>
+      <c r="HE5" s="4"/>
+      <c r="HF5" s="4"/>
+      <c r="HG5" s="4"/>
+      <c r="HH5" s="4"/>
+      <c r="HI5" s="4"/>
+      <c r="HJ5" s="4"/>
+      <c r="HK5" s="4"/>
+      <c r="HL5" s="4"/>
+      <c r="HM5" s="4"/>
+      <c r="HN5" s="4"/>
+      <c r="HO5" s="4"/>
+      <c r="HP5" s="4"/>
+      <c r="HQ5" s="4"/>
+      <c r="HR5" s="4"/>
+      <c r="HS5" s="4"/>
+      <c r="HT5" s="4"/>
+      <c r="HU5" s="4"/>
+      <c r="HV5" s="4"/>
+      <c r="HW5" s="4"/>
+      <c r="HX5" s="4"/>
+      <c r="HY5" s="4"/>
+      <c r="HZ5" s="4"/>
+      <c r="IA5" s="4"/>
+      <c r="IB5" s="4"/>
+      <c r="IC5" s="4"/>
+      <c r="ID5" s="4"/>
+      <c r="IE5" s="4"/>
+      <c r="IF5" s="4"/>
+      <c r="IG5" s="4"/>
+      <c r="IH5" s="4"/>
+      <c r="II5" s="4"/>
+      <c r="IJ5" s="4"/>
+      <c r="IK5" s="4"/>
+      <c r="IL5" s="4"/>
+      <c r="IM5" s="4"/>
+      <c r="IN5" s="4"/>
+      <c r="IO5" s="4"/>
+      <c r="IP5" s="4"/>
+      <c r="IQ5" s="4"/>
+      <c r="IR5" s="4"/>
+      <c r="IS5" s="4"/>
+      <c r="IT5" s="4"/>
+      <c r="IU5" s="4"/>
+      <c r="IV5" s="4"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1668,159 +3664,733 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.8516" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.3516" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.6719" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.6719" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.6719" style="15" customWidth="1"/>
-    <col min="9" max="9" width="182" style="15" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="183.5703125" style="3" customWidth="1"/>
+    <col min="10" max="256" width="16.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="140" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+    <row r="2" spans="1:256" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+    <row r="3" spans="1:256" s="16" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="15"/>
+      <c r="CZ3" s="15"/>
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="15"/>
+      <c r="DE3" s="15"/>
+      <c r="DF3" s="15"/>
+      <c r="DG3" s="15"/>
+      <c r="DH3" s="15"/>
+      <c r="DI3" s="15"/>
+      <c r="DJ3" s="15"/>
+      <c r="DK3" s="15"/>
+      <c r="DL3" s="15"/>
+      <c r="DM3" s="15"/>
+      <c r="DN3" s="15"/>
+      <c r="DO3" s="15"/>
+      <c r="DP3" s="15"/>
+      <c r="DQ3" s="15"/>
+      <c r="DR3" s="15"/>
+      <c r="DS3" s="15"/>
+      <c r="DT3" s="15"/>
+      <c r="DU3" s="15"/>
+      <c r="DV3" s="15"/>
+      <c r="DW3" s="15"/>
+      <c r="DX3" s="15"/>
+      <c r="DY3" s="15"/>
+      <c r="DZ3" s="15"/>
+      <c r="EA3" s="15"/>
+      <c r="EB3" s="15"/>
+      <c r="EC3" s="15"/>
+      <c r="ED3" s="15"/>
+      <c r="EE3" s="15"/>
+      <c r="EF3" s="15"/>
+      <c r="EG3" s="15"/>
+      <c r="EH3" s="15"/>
+      <c r="EI3" s="15"/>
+      <c r="EJ3" s="15"/>
+      <c r="EK3" s="15"/>
+      <c r="EL3" s="15"/>
+      <c r="EM3" s="15"/>
+      <c r="EN3" s="15"/>
+      <c r="EO3" s="15"/>
+      <c r="EP3" s="15"/>
+      <c r="EQ3" s="15"/>
+      <c r="ER3" s="15"/>
+      <c r="ES3" s="15"/>
+      <c r="ET3" s="15"/>
+      <c r="EU3" s="15"/>
+      <c r="EV3" s="15"/>
+      <c r="EW3" s="15"/>
+      <c r="EX3" s="15"/>
+      <c r="EY3" s="15"/>
+      <c r="EZ3" s="15"/>
+      <c r="FA3" s="15"/>
+      <c r="FB3" s="15"/>
+      <c r="FC3" s="15"/>
+      <c r="FD3" s="15"/>
+      <c r="FE3" s="15"/>
+      <c r="FF3" s="15"/>
+      <c r="FG3" s="15"/>
+      <c r="FH3" s="15"/>
+      <c r="FI3" s="15"/>
+      <c r="FJ3" s="15"/>
+      <c r="FK3" s="15"/>
+      <c r="FL3" s="15"/>
+      <c r="FM3" s="15"/>
+      <c r="FN3" s="15"/>
+      <c r="FO3" s="15"/>
+      <c r="FP3" s="15"/>
+      <c r="FQ3" s="15"/>
+      <c r="FR3" s="15"/>
+      <c r="FS3" s="15"/>
+      <c r="FT3" s="15"/>
+      <c r="FU3" s="15"/>
+      <c r="FV3" s="15"/>
+      <c r="FW3" s="15"/>
+      <c r="FX3" s="15"/>
+      <c r="FY3" s="15"/>
+      <c r="FZ3" s="15"/>
+      <c r="GA3" s="15"/>
+      <c r="GB3" s="15"/>
+      <c r="GC3" s="15"/>
+      <c r="GD3" s="15"/>
+      <c r="GE3" s="15"/>
+      <c r="GF3" s="15"/>
+      <c r="GG3" s="15"/>
+      <c r="GH3" s="15"/>
+      <c r="GI3" s="15"/>
+      <c r="GJ3" s="15"/>
+      <c r="GK3" s="15"/>
+      <c r="GL3" s="15"/>
+      <c r="GM3" s="15"/>
+      <c r="GN3" s="15"/>
+      <c r="GO3" s="15"/>
+      <c r="GP3" s="15"/>
+      <c r="GQ3" s="15"/>
+      <c r="GR3" s="15"/>
+      <c r="GS3" s="15"/>
+      <c r="GT3" s="15"/>
+      <c r="GU3" s="15"/>
+      <c r="GV3" s="15"/>
+      <c r="GW3" s="15"/>
+      <c r="GX3" s="15"/>
+      <c r="GY3" s="15"/>
+      <c r="GZ3" s="15"/>
+      <c r="HA3" s="15"/>
+      <c r="HB3" s="15"/>
+      <c r="HC3" s="15"/>
+      <c r="HD3" s="15"/>
+      <c r="HE3" s="15"/>
+      <c r="HF3" s="15"/>
+      <c r="HG3" s="15"/>
+      <c r="HH3" s="15"/>
+      <c r="HI3" s="15"/>
+      <c r="HJ3" s="15"/>
+      <c r="HK3" s="15"/>
+      <c r="HL3" s="15"/>
+      <c r="HM3" s="15"/>
+      <c r="HN3" s="15"/>
+      <c r="HO3" s="15"/>
+      <c r="HP3" s="15"/>
+      <c r="HQ3" s="15"/>
+      <c r="HR3" s="15"/>
+      <c r="HS3" s="15"/>
+      <c r="HT3" s="15"/>
+      <c r="HU3" s="15"/>
+      <c r="HV3" s="15"/>
+      <c r="HW3" s="15"/>
+      <c r="HX3" s="15"/>
+      <c r="HY3" s="15"/>
+      <c r="HZ3" s="15"/>
+      <c r="IA3" s="15"/>
+      <c r="IB3" s="15"/>
+      <c r="IC3" s="15"/>
+      <c r="ID3" s="15"/>
+      <c r="IE3" s="15"/>
+      <c r="IF3" s="15"/>
+      <c r="IG3" s="15"/>
+      <c r="IH3" s="15"/>
+      <c r="II3" s="15"/>
+      <c r="IJ3" s="15"/>
+      <c r="IK3" s="15"/>
+      <c r="IL3" s="15"/>
+      <c r="IM3" s="15"/>
+      <c r="IN3" s="15"/>
+      <c r="IO3" s="15"/>
+      <c r="IP3" s="15"/>
+      <c r="IQ3" s="15"/>
+      <c r="IR3" s="15"/>
+      <c r="IS3" s="15"/>
+      <c r="IT3" s="15"/>
+      <c r="IU3" s="15"/>
+      <c r="IV3" s="15"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+    <row r="4" spans="1:256" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+    <row r="5" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
+      <c r="CQ5" s="4"/>
+      <c r="CR5" s="4"/>
+      <c r="CS5" s="4"/>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="4"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
+      <c r="CX5" s="4"/>
+      <c r="CY5" s="4"/>
+      <c r="CZ5" s="4"/>
+      <c r="DA5" s="4"/>
+      <c r="DB5" s="4"/>
+      <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
+      <c r="DG5" s="4"/>
+      <c r="DH5" s="4"/>
+      <c r="DI5" s="4"/>
+      <c r="DJ5" s="4"/>
+      <c r="DK5" s="4"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="4"/>
+      <c r="DQ5" s="4"/>
+      <c r="DR5" s="4"/>
+      <c r="DS5" s="4"/>
+      <c r="DT5" s="4"/>
+      <c r="DU5" s="4"/>
+      <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="4"/>
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="4"/>
+      <c r="EB5" s="4"/>
+      <c r="EC5" s="4"/>
+      <c r="ED5" s="4"/>
+      <c r="EE5" s="4"/>
+      <c r="EF5" s="4"/>
+      <c r="EG5" s="4"/>
+      <c r="EH5" s="4"/>
+      <c r="EI5" s="4"/>
+      <c r="EJ5" s="4"/>
+      <c r="EK5" s="4"/>
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4"/>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4"/>
+      <c r="EW5" s="4"/>
+      <c r="EX5" s="4"/>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+      <c r="FK5" s="4"/>
+      <c r="FL5" s="4"/>
+      <c r="FM5" s="4"/>
+      <c r="FN5" s="4"/>
+      <c r="FO5" s="4"/>
+      <c r="FP5" s="4"/>
+      <c r="FQ5" s="4"/>
+      <c r="FR5" s="4"/>
+      <c r="FS5" s="4"/>
+      <c r="FT5" s="4"/>
+      <c r="FU5" s="4"/>
+      <c r="FV5" s="4"/>
+      <c r="FW5" s="4"/>
+      <c r="FX5" s="4"/>
+      <c r="FY5" s="4"/>
+      <c r="FZ5" s="4"/>
+      <c r="GA5" s="4"/>
+      <c r="GB5" s="4"/>
+      <c r="GC5" s="4"/>
+      <c r="GD5" s="4"/>
+      <c r="GE5" s="4"/>
+      <c r="GF5" s="4"/>
+      <c r="GG5" s="4"/>
+      <c r="GH5" s="4"/>
+      <c r="GI5" s="4"/>
+      <c r="GJ5" s="4"/>
+      <c r="GK5" s="4"/>
+      <c r="GL5" s="4"/>
+      <c r="GM5" s="4"/>
+      <c r="GN5" s="4"/>
+      <c r="GO5" s="4"/>
+      <c r="GP5" s="4"/>
+      <c r="GQ5" s="4"/>
+      <c r="GR5" s="4"/>
+      <c r="GS5" s="4"/>
+      <c r="GT5" s="4"/>
+      <c r="GU5" s="4"/>
+      <c r="GV5" s="4"/>
+      <c r="GW5" s="4"/>
+      <c r="GX5" s="4"/>
+      <c r="GY5" s="4"/>
+      <c r="GZ5" s="4"/>
+      <c r="HA5" s="4"/>
+      <c r="HB5" s="4"/>
+      <c r="HC5" s="4"/>
+      <c r="HD5" s="4"/>
+      <c r="HE5" s="4"/>
+      <c r="HF5" s="4"/>
+      <c r="HG5" s="4"/>
+      <c r="HH5" s="4"/>
+      <c r="HI5" s="4"/>
+      <c r="HJ5" s="4"/>
+      <c r="HK5" s="4"/>
+      <c r="HL5" s="4"/>
+      <c r="HM5" s="4"/>
+      <c r="HN5" s="4"/>
+      <c r="HO5" s="4"/>
+      <c r="HP5" s="4"/>
+      <c r="HQ5" s="4"/>
+      <c r="HR5" s="4"/>
+      <c r="HS5" s="4"/>
+      <c r="HT5" s="4"/>
+      <c r="HU5" s="4"/>
+      <c r="HV5" s="4"/>
+      <c r="HW5" s="4"/>
+      <c r="HX5" s="4"/>
+      <c r="HY5" s="4"/>
+      <c r="HZ5" s="4"/>
+      <c r="IA5" s="4"/>
+      <c r="IB5" s="4"/>
+      <c r="IC5" s="4"/>
+      <c r="ID5" s="4"/>
+      <c r="IE5" s="4"/>
+      <c r="IF5" s="4"/>
+      <c r="IG5" s="4"/>
+      <c r="IH5" s="4"/>
+      <c r="II5" s="4"/>
+      <c r="IJ5" s="4"/>
+      <c r="IK5" s="4"/>
+      <c r="IL5" s="4"/>
+      <c r="IM5" s="4"/>
+      <c r="IN5" s="4"/>
+      <c r="IO5" s="4"/>
+      <c r="IP5" s="4"/>
+      <c r="IQ5" s="4"/>
+      <c r="IR5" s="4"/>
+      <c r="IS5" s="4"/>
+      <c r="IT5" s="4"/>
+      <c r="IU5" s="4"/>
+      <c r="IV5" s="4"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2" display="jocelyn@mansion-technology.com"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1828,182 +4398,255 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.8516" style="26" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="26" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="26" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="26" customWidth="1"/>
-    <col min="5" max="5" width="10.3516" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.6719" style="26" customWidth="1"/>
-    <col min="7" max="7" width="12.6719" style="26" customWidth="1"/>
-    <col min="8" max="8" width="12.6719" style="26" customWidth="1"/>
-    <col min="9" max="9" width="182" style="26" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="26" customWidth="1"/>
+    <col min="1" max="1" width="29" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="8" width="30.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="186.85546875" style="4" customWidth="1"/>
+    <col min="10" max="256" width="16.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="140" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="4">
+    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s" s="4">
-        <v>17</v>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+    <row r="3" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+    <row r="4" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+    <row r="5" spans="1:9" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/api/data/工作机会.xlsx
+++ b/src/api/data/工作机会.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\媛媛填写\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E809D1C-A75A-434E-865E-45642CC4C277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
   <si>
     <t>title</t>
   </si>
@@ -77,17 +78,10 @@
     </r>
   </si>
   <si>
-    <t>香港鴻昇電子器材有限公司</t>
-  </si>
-  <si>
     <t>Hong Kong</t>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lady Fanny.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -749,10 +743,6 @@
 3. Be familiar with the product market of electronic component industry, have corresponding product sales experience, or be interested in electronic components and components.
 4. Strong customer communication skills and high business dealing ability. Good teamwork spirit.
 5. Strong learning ability and challenging spirit. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hongkong Hungshang Electronic Equipment Co., Ltd.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1235,11 +1225,26 @@
   <si>
     <t>Working place</t>
   </si>
+  <si>
+    <t>Ms.jocelyn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ms.Fanny</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港鸿昇電子器材有限公司</t>
+  </si>
+  <si>
+    <t>Hongkong Hung Shang Electronic Equipment Co., Ltd.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1554,7 +1559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2684,31 +2695,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="182" style="1" customWidth="1"/>
-    <col min="10" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2735,9 +2746,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="140.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -2752,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -2761,36 +2772,36 @@
         <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="140.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -3040,33 +3051,33 @@
       <c r="IU3" s="4"/>
       <c r="IV3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="140.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -3316,33 +3327,33 @@
       <c r="IU4" s="4"/>
       <c r="IV4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="140.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -3592,7 +3603,7 @@
       <c r="IU5" s="4"/>
       <c r="IV5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3603,7 +3614,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3614,7 +3625,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3625,7 +3636,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3636,7 +3647,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3650,10 +3661,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3664,31 +3675,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="183.5703125" style="3" customWidth="1"/>
-    <col min="10" max="256" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="183.54296875" style="3" customWidth="1"/>
+    <col min="10" max="256" width="16.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3702,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -3717,24 +3728,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -3743,36 +3754,36 @@
         <v>14</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="16" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" s="16" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -4022,62 +4033,62 @@
       <c r="IU3" s="15"/>
       <c r="IV3" s="15"/>
     </row>
-    <row r="4" spans="1:256" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="140.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:256" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -4327,7 +4338,7 @@
       <c r="IU5" s="4"/>
       <c r="IV5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4338,7 +4349,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4349,7 +4360,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4360,7 +4371,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4371,7 +4382,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4385,9 +4396,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2" display="jocelyn@mansion-technology.com"/>
-    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" display="jocelyn@mansion-technology.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -4398,29 +4409,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
-    <col min="6" max="8" width="30.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="186.85546875" style="4" customWidth="1"/>
-    <col min="10" max="256" width="16.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="30.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="186.81640625" style="4" customWidth="1"/>
+    <col min="10" max="256" width="16.26953125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4434,10 +4445,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -4449,123 +4460,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4576,7 +4587,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4587,7 +4598,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4598,7 +4609,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4609,7 +4620,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4623,13 +4634,13 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4637,12 +4648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
